--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,15 +61,18 @@
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
@@ -94,19 +97,22 @@
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
@@ -115,12 +121,12 @@
     <t>price</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>loves</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,16 +720,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7330097087378641</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,16 +870,16 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.3434426229508197</v>
+        <v>0.3491803278688524</v>
       </c>
       <c r="L8">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M8">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6283783783783784</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.2812051649928264</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L9">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M9">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5798319327731093</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.2780082987551867</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4985507246376812</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.2108433734939759</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4603174603174603</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.1865443425076453</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>266</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4457831325301205</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.07099035933391762</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L13">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M13">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1060</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4173228346456693</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.027255029201817</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1499</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,7 +1217,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <v>56</v>
+      </c>
+      <c r="N15">
+        <v>0.98</v>
+      </c>
+      <c r="O15">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3707865168539326</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1242,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3203125</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1260,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1268,13 +1301,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.301980198019802</v>
+        <v>0.3359375</v>
       </c>
       <c r="C18">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1286,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1294,13 +1327,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2890995260663507</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1312,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1320,13 +1353,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2577319587628866</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1338,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1346,13 +1379,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1364,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1372,13 +1405,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.177536231884058</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1390,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1398,13 +1431,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1617210682492582</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C23">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1416,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>565</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1424,13 +1457,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1582278481012658</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1442,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1450,13 +1483,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1550632911392405</v>
+        <v>0.1557863501483679</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1468,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>267</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1476,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1277533039647577</v>
+        <v>0.155</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1494,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>396</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1502,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1264367816091954</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1520,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>304</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1528,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1086142322097378</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1546,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>238</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1554,13 +1587,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.07945205479452055</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1572,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1580,25 +1613,77 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07084019769357495</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>564</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.07126948775055679</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.05592105263157895</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
